--- a/CleanData/PopulusCleanData.xlsx
+++ b/CleanData/PopulusCleanData.xlsx
@@ -2061,7 +2061,7 @@
     <col hidden="1" width="9.1640625" customWidth="1" style="26" min="9" max="9"/>
     <col hidden="1" width="8.33203125" customWidth="1" style="26" min="10" max="10"/>
     <col hidden="1" width="9" customWidth="1" style="26" min="11" max="12"/>
-    <col hidden="1" width="13" customWidth="1" style="26" min="13" max="256"/>
+    <col hidden="1" style="26" min="13" max="256"/>
     <col hidden="1" width="9.33203125" customWidth="1" style="26" min="257" max="16384"/>
   </cols>
   <sheetData>
@@ -2723,7 +2723,7 @@
     <col width="45.6640625" customWidth="1" style="112" min="1" max="1"/>
     <col width="10.83203125" customWidth="1" style="113" min="2" max="4"/>
     <col width="10.83203125" customWidth="1" style="58" min="5" max="20"/>
-    <col hidden="1" width="13" customWidth="1" min="21" max="61"/>
+    <col hidden="1" min="21" max="61"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="62" max="16384"/>
   </cols>
   <sheetData>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="T12" s="137" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(c)</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="T12" s="109" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -9998,7 +9998,7 @@
     <col width="46.5" customWidth="1" min="1" max="1"/>
     <col width="12.83203125" customWidth="1" style="58" min="2" max="10"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="11" max="13"/>
-    <col hidden="1" width="13" customWidth="1" min="14" max="32"/>
+    <col hidden="1" min="14" max="32"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="33" max="16384"/>
   </cols>
   <sheetData>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="J11" s="139" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(c)(d)</t>
         </is>
       </c>
       <c r="K11" s="20" t="n"/>
@@ -10874,7 +10874,7 @@
     <col width="46.1640625" customWidth="1" min="1" max="1"/>
     <col width="15.83203125" customWidth="1" style="58" min="2" max="13"/>
     <col hidden="1" width="18.83203125" customWidth="1" min="14" max="14"/>
-    <col hidden="1" width="13" customWidth="1" min="15" max="44"/>
+    <col hidden="1" min="15" max="44"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="45" max="16384"/>
   </cols>
   <sheetData>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="M11" s="141" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(c)(d)</t>
         </is>
       </c>
       <c r="Y11" s="143" t="n"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G10" s="139" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(d)</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:BF86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -13166,8 +13166,8 @@
   <cols>
     <col width="45.83203125" customWidth="1" min="1" max="1"/>
     <col width="13.83203125" customWidth="1" style="58" min="2" max="18"/>
-    <col hidden="1" width="13" customWidth="1" style="58" min="19" max="20"/>
-    <col hidden="1" width="13" customWidth="1" min="21" max="58"/>
+    <col hidden="1" style="58" min="19" max="20"/>
+    <col hidden="1" min="21" max="58"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="59" max="16384"/>
   </cols>
   <sheetData>
@@ -13341,7 +13341,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="182" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total personal income (weekly)</t>
         </is>
       </c>
       <c r="C10" s="185" t="n"/>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="R11" s="133" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(c)</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -16624,7 +16624,7 @@
     <col hidden="1" width="9.33203125" customWidth="1" min="6" max="8"/>
     <col hidden="1" width="21" customWidth="1" min="9" max="9"/>
     <col hidden="1" width="22.1640625" customWidth="1" min="10" max="11"/>
-    <col hidden="1" width="13" customWidth="1" min="12" max="17"/>
+    <col hidden="1" min="12" max="17"/>
     <col hidden="1" width="9.33203125" customWidth="1" min="18" max="16384"/>
   </cols>
   <sheetData>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="E12" s="127" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(d)</t>
         </is>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="D11" s="73" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="E11" s="73" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="G11" s="73" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Total(d)</t>
         </is>
       </c>
     </row>
